--- a/biology/Zoologie/Aigle_huppé/Aigle_huppé.xlsx
+++ b/biology/Zoologie/Aigle_huppé/Aigle_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigle_hupp%C3%A9</t>
+          <t>Aigle_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nisaetus cirrhatus
 L’Aigle huppé (Nisaetus cirrhatus, autrefois Spizaetus cirrhatus) est une espèce de rapace de la famille des Accipitridae. Il est souvent à tort confondu avec l'Aigle huppard.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigle_hupp%C3%A9</t>
+          <t>Aigle_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans le sous-continent indien, principalement en Inde et au Sri Lanka, et du bord sud-est de l'Himalaya à travers l'Asie du Sud-Est jusqu'à l'Indonésie et aux Philippines.
 Son habitat varie légèrement selon les régions. Ainsi, les sous-espèces que l'on trouve dans les îles affectionnent particulièrement les forêts, alors que la sous-espèce Nisaetus cirrhatus limnaeetus préfère les lisières de villages.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aigle_hupp%C3%A9</t>
+          <t>Aigle_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aigle huppé mesure de la tête à la queue de 61 à 75 cm[1]. Son plumage est brun et noir et il porte une crête (huppe) sur la tête.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aigle huppé mesure de la tête à la queue de 61 à 75 cm. Son plumage est brun et noir et il porte une crête (huppe) sur la tête.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aigle_hupp%C3%A9</t>
+          <t>Aigle_huppé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction n'a pas forcément lieu tous les ans. Dans les zones tropicales, la période varie, mais dans la partie nord de leur distribution, elle a lieu de décembre à avril.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aigle_hupp%C3%A9</t>
+          <t>Aigle_huppé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des cinq sous-espèces suivantes :
 Nisaetus cirrhatus andamanensis (Tytler) 1865
